--- a/Documentation/ProjectDocumentation/Website_template.xlsx
+++ b/Documentation/ProjectDocumentation/Website_template.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdo/projects/FH/p16/Documentation/ProjectDocumentation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E9DDB2-18B8-BD4B-81E5-6920A525F716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="15" windowWidth="19320" windowHeight="14520"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Titel</t>
   </si>
@@ -78,9 +84,6 @@
     <t>Freigabe</t>
   </si>
   <si>
-    <t>Martina Musterfrau, Max Mustermann</t>
-  </si>
-  <si>
     <t>FH-Studenten</t>
   </si>
   <si>
@@ -96,24 +99,12 @@
     <t>Vollständiger Titel und Name des Projektbetreuers</t>
   </si>
   <si>
-    <t>Musterfirma</t>
-  </si>
-  <si>
     <t>Hier soll eine Kurzbeschreibung des Projekts eingefügt werden. Dieser Kurztext wird neben dem Logo des Projekts (1. Bild) auf der Projektübersichtsseite zu lesen sein. Die Länge sollte ca. 2-3 Sätze betragen.</t>
   </si>
   <si>
-    <t>Mustertitel</t>
-  </si>
-  <si>
-    <t>DI Dr. Max Mustermann, BSc, MSc</t>
-  </si>
-  <si>
     <t>Liste der Namen der Studierenden, die an diesem Projekt mitarbeiten, mit Komma getrennt.</t>
   </si>
   <si>
-    <t>Bild1.jpg,Bild2.png,Bild3.gif</t>
-  </si>
-  <si>
     <t>Ausfüllhinweise: Für 1 Projekt muss jeweils 1 Zeile ausgefüllt werden. Zu verwenden ist die obige Zeile mit den Musterdaten. Die ausgeblendeten Spalten sollen nicht eingeblendet werden.</t>
   </si>
   <si>
@@ -132,24 +123,37 @@
     <t>Bei Unklarheiten können die aktuellen Projektbeschreibungen auf der Website als Referenz herangezogen werden. Bei konkreten Fragen ist Kontakt mit Stephan Drab aufzunehmen.</t>
   </si>
   <si>
-    <t>Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext.
-Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext.</t>
-  </si>
-  <si>
-    <t>Dies ist eine Musterkurzbeschreibung. Dies ist eine Musterkurzbeschreibung.</t>
-  </si>
-  <si>
-    <t>Sommersemester 2009</t>
-  </si>
-  <si>
     <t>abgeschlossen</t>
+  </si>
+  <si>
+    <t>Sommersemester 2022</t>
+  </si>
+  <si>
+    <t>Abd El Rahaman Shehata</t>
+  </si>
+  <si>
+    <t>Game Engine with WebGPU</t>
+  </si>
+  <si>
+    <t>Das Projekt soll ein Game Engine werden. Es ist ein in der moderenen Programmiersprache geschrieben und benutzt WebGPU eine moderne Grafik/Compute-API um soviel performance wie möglich zu bekommen.</t>
+  </si>
+  <si>
+    <t>Lugstein Johannes, BSc, MSc</t>
+  </si>
+  <si>
+    <t>Das Ziel des Projekts ist es zu testen wie gut WebGPU, der neue Standard für „Low Level Graphics“ auf dem World Wide Web, als plattformübergreifende API für einen Game Engine geeignet ist. 
+Der Vorteil von WebGPU gegenüber „Wrapper“ Bibliotheken wie MoltenVK für Vulkan ist, dass die API standardisiert ist und verschiedene Unternehmen und Gruppen beteiligten sind. Dies führt dazu, dass Hardwareentwickler/-hersteller spezielle Treiber einbauen können zum Verbessern der Performance.
+Die Resultate bis jetzt sind sehr positiv. Vergleichsweise zu WebGL ist das Zeichnen und Bewegen von 3D Objekten bei einer naiven Implementation bis zu 3x schneller und dies führt dazu, dass es selten zu „Frame drops“ kommt.</t>
+  </si>
+  <si>
+    <t>GameEngineWithWebGPU_1_Dragon.gif,GameEngineWithWebGPU_1_Armadillo.gif</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -269,9 +273,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -295,6 +296,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -302,6 +307,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -348,7 +361,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,9 +393,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -414,6 +445,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -589,38 +638,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="39.28515625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5703125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="39.7109375" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.5" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="39.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="39.6640625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="30.5" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" customWidth="1"/>
+    <col min="20" max="20" width="9.1640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="5" customFormat="1">
+    <row r="1" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -682,231 +731,228 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="6" customFormat="1" ht="12.75" customHeight="1">
+    <row r="2" spans="1:20" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H2" s="6">
         <v>0</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="7" t="s">
         <v>38</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="T2" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="6" customFormat="1"/>
-    <row r="4" spans="1:20" s="6" customFormat="1"/>
-    <row r="5" spans="1:20" s="6" customFormat="1"/>
-    <row r="6" spans="1:20">
-      <c r="A6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
+    <row r="3" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
+      <c r="B7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
     </row>
-    <row r="8" spans="1:20" ht="52.5" customHeight="1">
+    <row r="8" spans="1:20" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
+      <c r="B8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
     </row>
-    <row r="9" spans="1:20" ht="27.75" customHeight="1">
+    <row r="9" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
+      <c r="B9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="13"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
+      <c r="B11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
     </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
+      <c r="B12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
     </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
+      <c r="B13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
     </row>
-    <row r="13" spans="1:20" ht="39" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="10"/>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="9"/>
     </row>
   </sheetData>
   <sheetProtection password="E579" sheet="1" selectLockedCells="1"/>
@@ -929,12 +975,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -943,12 +989,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
